--- a/TCC BRUNO SANTOS-2008-2021- valores MENSAIS- atualiz. 24_05_2022.xlsx
+++ b/TCC BRUNO SANTOS-2008-2021- valores MENSAIS- atualiz. 24_05_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/929e22183126fff3/Diego Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DiegoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6214FC1D-0F7A-4088-B864-594A06D42AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85816641-FE2F-40BA-9756-257197757509}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983A3D23-7583-4EA2-8BDA-43B530E4A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIH- QUANT. FACO-FEC " sheetId="1" r:id="rId1"/>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="554">
   <si>
     <t>Procedimentos hospitalares do SUS - por local de internação - Brasil</t>
   </si>
@@ -163,25 +185,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t xml:space="preserve">Fonte: Ministério da Saúde - Sistema de Informações Ambulatoriais do SUS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF9900"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>(SIA/SUS)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -279,6 +282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Valor aprovado </t>
     </r>
@@ -287,6 +291,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">por Região e Ano </t>
     </r>
@@ -296,6 +301,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>atendimento</t>
     </r>
@@ -1900,16 +1906,61 @@
   <si>
     <t>IPCA</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fonte: Ministério da Saúde - Sistema de Informações Ambulatoriais do SUS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF9900"/>
+        <rFont val="Calibri, sans-serif"/>
+      </rPr>
+      <t>(SIA/SUS)</t>
+    </r>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>1st Qu.</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean  </t>
+  </si>
+  <si>
+    <t>3rd Qu</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Qtd</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Desv. Pad.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1920,21 +1971,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1969,6 +2024,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1984,6 +2040,14 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1994,7 +2058,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2002,12 +2066,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2028,8 +2145,42 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FCA85984-11E8-4AF2-B309-28D867C23C3E}"/>
   </cellStyles>
@@ -2249,9 +2400,7 @@
   </sheetPr>
   <dimension ref="A1:FV195"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2529,7 +2678,7 @@
       <c r="BD5" s="2"/>
     </row>
     <row r="6" spans="1:56" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2"/>
@@ -3182,25 +3331,25 @@
     </row>
     <row r="17" spans="1:178" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -15940,9 +16089,7 @@
   </sheetPr>
   <dimension ref="A1:FN186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -16786,8 +16933,8 @@
       <c r="FN5" s="2"/>
     </row>
     <row r="6" spans="1:170" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
+      <c r="A6" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -18646,25 +18793,25 @@
     </row>
     <row r="17" spans="1:170" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -26301,13 +26448,14 @@
   </sheetPr>
   <dimension ref="A1:FL183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="167" max="167" width="13.5703125" customWidth="1"/>
     <col min="168" max="168" width="21.140625" customWidth="1"/>
   </cols>
@@ -26482,7 +26630,7 @@
     </row>
     <row r="2" spans="1:168" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -27141,7 +27289,7 @@
     </row>
     <row r="6" spans="1:168" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -28963,25 +29111,25 @@
     </row>
     <row r="17" spans="1:168" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -37467,7 +37615,7 @@
       <c r="F183" s="4">
         <v>394076.4</v>
       </c>
-      <c r="G183" s="4">
+      <c r="G183" s="17">
         <v>2786644</v>
       </c>
     </row>
@@ -37483,13 +37631,19 @@
   </sheetPr>
   <dimension ref="A1:FR185"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:I185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="15.42578125" customWidth="1"/>
     <col min="170" max="174" width="21.42578125" customWidth="1"/>
   </cols>
@@ -37673,10 +37827,10 @@
     </row>
     <row r="2" spans="1:174" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -37833,12 +37987,12 @@
       <c r="FA2" s="2"/>
       <c r="FB2" s="2"/>
       <c r="FC2" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="FD2" s="15"/>
       <c r="FE2" s="15"/>
       <c r="FF2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="FG2" s="6"/>
       <c r="FH2" s="6"/>
@@ -38364,7 +38518,7 @@
     </row>
     <row r="6" spans="1:174" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -40254,25 +40408,25 @@
     </row>
     <row r="17" spans="1:174" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -40465,7 +40619,7 @@
         <v>8486915</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -40655,7 +40809,7 @@
         <v>9497550</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -40845,7 +40999,7 @@
         <v>10825365</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -41035,7 +41189,7 @@
         <v>11919229</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -41224,6 +41378,7 @@
       <c r="G22" s="4">
         <v>11347565</v>
       </c>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:174" ht="15.75" customHeight="1">
       <c r="A23" s="8">
@@ -41247,6 +41402,7 @@
       <c r="G23" s="4">
         <v>12818778</v>
       </c>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:174" ht="15.75" customHeight="1">
       <c r="A24" s="8">
@@ -41270,6 +41426,7 @@
       <c r="G24" s="4">
         <v>12005929</v>
       </c>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:174" ht="15.75" customHeight="1">
       <c r="A25" s="8">
@@ -41293,6 +41450,7 @@
       <c r="G25" s="4">
         <v>13371038</v>
       </c>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:174" ht="15.75" customHeight="1">
       <c r="A26" s="8">
@@ -41316,6 +41474,7 @@
       <c r="G26" s="4">
         <v>12812704</v>
       </c>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:174" ht="15.75" customHeight="1">
       <c r="A27" s="8">
@@ -41339,6 +41498,7 @@
       <c r="G27" s="4">
         <v>14333467</v>
       </c>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:174" ht="15.75" customHeight="1">
       <c r="A28" s="8">
@@ -41362,6 +41522,7 @@
       <c r="G28" s="4">
         <v>14558358</v>
       </c>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:174" ht="15.75" customHeight="1">
       <c r="A29" s="8">
@@ -41385,6 +41546,7 @@
       <c r="G29" s="4">
         <v>12928263</v>
       </c>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:174" ht="15.75" customHeight="1">
       <c r="A30" s="8">
@@ -41408,6 +41570,7 @@
       <c r="G30" s="4">
         <v>11883464</v>
       </c>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:174" ht="15.75" customHeight="1">
       <c r="A31" s="8">
@@ -41431,6 +41594,7 @@
       <c r="G31" s="4">
         <v>11189803</v>
       </c>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:174" ht="15.75" customHeight="1">
       <c r="A32" s="8">
@@ -41454,8 +41618,9 @@
       <c r="G32" s="4">
         <v>14909324</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="8">
         <v>39904</v>
       </c>
@@ -41477,8 +41642,9 @@
       <c r="G33" s="4">
         <v>13773122</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="8">
         <v>39934</v>
       </c>
@@ -41500,8 +41666,9 @@
       <c r="G34" s="4">
         <v>14833201</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="8">
         <v>39965</v>
       </c>
@@ -41523,8 +41690,9 @@
       <c r="G35" s="4">
         <v>15311654</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="8">
         <v>39995</v>
       </c>
@@ -41546,8 +41714,9 @@
       <c r="G36" s="4">
         <v>16839472</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="8">
         <v>40026</v>
       </c>
@@ -41569,8 +41738,9 @@
       <c r="G37" s="4">
         <v>15720890</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="8">
         <v>40057</v>
       </c>
@@ -41592,8 +41762,9 @@
       <c r="G38" s="4">
         <v>16144707</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="8">
         <v>40087</v>
       </c>
@@ -41615,8 +41786,9 @@
       <c r="G39" s="4">
         <v>16176090</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="8">
         <v>40118</v>
       </c>
@@ -41638,8 +41810,9 @@
       <c r="G40" s="4">
         <v>15548715</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="8">
         <v>40148</v>
       </c>
@@ -41661,8 +41834,9 @@
       <c r="G41" s="4">
         <v>12877839</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="8">
         <v>40179</v>
       </c>
@@ -41684,8 +41858,9 @@
       <c r="G42" s="4">
         <v>13153600</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="A43" s="8">
         <v>40210</v>
       </c>
@@ -41707,8 +41882,9 @@
       <c r="G43" s="4">
         <v>13885218</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="A44" s="8">
         <v>40238</v>
       </c>
@@ -41730,8 +41906,9 @@
       <c r="G44" s="4">
         <v>17352624</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="8">
         <v>40269</v>
       </c>
@@ -41753,8 +41930,9 @@
       <c r="G45" s="4">
         <v>18349310</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="8">
         <v>40299</v>
       </c>
@@ -41776,8 +41954,9 @@
       <c r="G46" s="4">
         <v>20056209</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="A47" s="8">
         <v>40330</v>
       </c>
@@ -41799,8 +41978,9 @@
       <c r="G47" s="4">
         <v>18432831</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="A48" s="8">
         <v>40360</v>
       </c>
@@ -41822,8 +42002,9 @@
       <c r="G48" s="4">
         <v>15231211</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" s="8">
         <v>40391</v>
       </c>
@@ -41845,8 +42026,9 @@
       <c r="G49" s="4">
         <v>16298191</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1">
       <c r="A50" s="8">
         <v>40422</v>
       </c>
@@ -41868,8 +42050,9 @@
       <c r="G50" s="4">
         <v>15324758</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" s="8">
         <v>40452</v>
       </c>
@@ -41891,8 +42074,9 @@
       <c r="G51" s="4">
         <v>14615170</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1">
       <c r="A52" s="8">
         <v>40483</v>
       </c>
@@ -41914,8 +42098,9 @@
       <c r="G52" s="4">
         <v>15874405</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1">
       <c r="A53" s="8">
         <v>40513</v>
       </c>
@@ -41937,8 +42122,9 @@
       <c r="G53" s="4">
         <v>13371979</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="A54" s="8">
         <v>40544</v>
       </c>
@@ -41960,8 +42146,9 @@
       <c r="G54" s="4">
         <v>12389834</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="A55" s="8">
         <v>40575</v>
       </c>
@@ -41983,8 +42170,9 @@
       <c r="G55" s="4">
         <v>15531051</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="A56" s="8">
         <v>40603</v>
       </c>
@@ -42006,8 +42194,9 @@
       <c r="G56" s="4">
         <v>15384517</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
       <c r="A57" s="8">
         <v>40634</v>
       </c>
@@ -42029,8 +42218,9 @@
       <c r="G57" s="4">
         <v>16997787</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
       <c r="A58" s="8">
         <v>40664</v>
       </c>
@@ -42052,8 +42242,9 @@
       <c r="G58" s="4">
         <v>20437626</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="A59" s="8">
         <v>40695</v>
       </c>
@@ -42075,8 +42266,9 @@
       <c r="G59" s="4">
         <v>25322361</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="A60" s="8">
         <v>40725</v>
       </c>
@@ -42098,8 +42290,9 @@
       <c r="G60" s="4">
         <v>19303679</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="A61" s="8">
         <v>40756</v>
       </c>
@@ -42121,8 +42314,9 @@
       <c r="G61" s="4">
         <v>20901318</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="A62" s="8">
         <v>40787</v>
       </c>
@@ -42144,8 +42338,9 @@
       <c r="G62" s="4">
         <v>25737596</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="A63" s="8">
         <v>40817</v>
       </c>
@@ -42167,8 +42362,9 @@
       <c r="G63" s="4">
         <v>17364846</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I63" s="18"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="A64" s="8">
         <v>40848</v>
       </c>
@@ -42190,8 +42386,9 @@
       <c r="G64" s="4">
         <v>21317540</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1">
       <c r="A65" s="8">
         <v>40878</v>
       </c>
@@ -42213,8 +42410,9 @@
       <c r="G65" s="4">
         <v>27425204</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1">
       <c r="A66" s="8">
         <v>40909</v>
       </c>
@@ -42236,8 +42434,9 @@
       <c r="G66" s="4">
         <v>19955925</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1">
       <c r="A67" s="8">
         <v>40940</v>
       </c>
@@ -42259,8 +42458,9 @@
       <c r="G67" s="4">
         <v>17861504</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1">
       <c r="A68" s="8">
         <v>40969</v>
       </c>
@@ -42282,8 +42482,9 @@
       <c r="G68" s="4">
         <v>19168551</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" s="8">
         <v>41000</v>
       </c>
@@ -42305,8 +42506,9 @@
       <c r="G69" s="4">
         <v>21449475</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
       <c r="A70" s="8">
         <v>41030</v>
       </c>
@@ -42328,8 +42530,9 @@
       <c r="G70" s="4">
         <v>24907640</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
       <c r="A71" s="8">
         <v>41061</v>
       </c>
@@ -42351,8 +42554,9 @@
       <c r="G71" s="4">
         <v>23412085</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1">
       <c r="A72" s="8">
         <v>41091</v>
       </c>
@@ -42374,8 +42578,9 @@
       <c r="G72" s="4">
         <v>23641649</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1">
       <c r="A73" s="8">
         <v>41122</v>
       </c>
@@ -42397,8 +42602,9 @@
       <c r="G73" s="4">
         <v>25410246</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1">
       <c r="A74" s="8">
         <v>41153</v>
       </c>
@@ -42420,8 +42626,9 @@
       <c r="G74" s="4">
         <v>19377636</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1">
       <c r="A75" s="8">
         <v>41183</v>
       </c>
@@ -42443,8 +42650,9 @@
       <c r="G75" s="4">
         <v>22277214</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1">
       <c r="A76" s="8">
         <v>41214</v>
       </c>
@@ -42466,8 +42674,9 @@
       <c r="G76" s="4">
         <v>19554799</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1">
       <c r="A77" s="8">
         <v>41244</v>
       </c>
@@ -42489,8 +42698,9 @@
       <c r="G77" s="4">
         <v>18749906</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1">
       <c r="A78" s="8">
         <v>41275</v>
       </c>
@@ -42512,8 +42722,9 @@
       <c r="G78" s="4">
         <v>16200843</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1">
       <c r="A79" s="8">
         <v>41306</v>
       </c>
@@ -42535,8 +42746,9 @@
       <c r="G79" s="4">
         <v>17171641</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I79" s="18"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1">
       <c r="A80" s="8">
         <v>41334</v>
       </c>
@@ -42558,8 +42770,9 @@
       <c r="G80" s="4">
         <v>19178806</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="8">
         <v>41365</v>
       </c>
@@ -42581,8 +42794,9 @@
       <c r="G81" s="4">
         <v>22324822</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1">
       <c r="A82" s="8">
         <v>41395</v>
       </c>
@@ -42604,8 +42818,9 @@
       <c r="G82" s="4">
         <v>25155599</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1">
       <c r="A83" s="8">
         <v>41426</v>
       </c>
@@ -42627,8 +42842,9 @@
       <c r="G83" s="4">
         <v>30053128</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I83" s="18"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1">
       <c r="A84" s="8">
         <v>41456</v>
       </c>
@@ -42650,8 +42866,9 @@
       <c r="G84" s="4">
         <v>26729550</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1">
       <c r="A85" s="8">
         <v>41487</v>
       </c>
@@ -42673,8 +42890,9 @@
       <c r="G85" s="4">
         <v>29841051</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I85" s="18"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="8">
         <v>41518</v>
       </c>
@@ -42696,8 +42914,9 @@
       <c r="G86" s="4">
         <v>32283346</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
       <c r="A87" s="8">
         <v>41548</v>
       </c>
@@ -42719,8 +42938,9 @@
       <c r="G87" s="4">
         <v>29050385</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I87" s="18"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
       <c r="A88" s="8">
         <v>41579</v>
       </c>
@@ -42742,8 +42962,9 @@
       <c r="G88" s="4">
         <v>26595455</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1">
       <c r="A89" s="8">
         <v>41609</v>
       </c>
@@ -42765,8 +42986,9 @@
       <c r="G89" s="4">
         <v>24229355</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I89" s="18"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1">
       <c r="A90" s="8">
         <v>41640</v>
       </c>
@@ -42788,8 +43010,9 @@
       <c r="G90" s="4">
         <v>20490145</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1">
       <c r="A91" s="8">
         <v>41671</v>
       </c>
@@ -42811,8 +43034,9 @@
       <c r="G91" s="4">
         <v>22072788</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1">
       <c r="A92" s="8">
         <v>41699</v>
       </c>
@@ -42834,8 +43058,9 @@
       <c r="G92" s="4">
         <v>25577591</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1">
       <c r="A93" s="8">
         <v>41730</v>
       </c>
@@ -42857,8 +43082,9 @@
       <c r="G93" s="4">
         <v>28859405</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I93" s="18"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1">
       <c r="A94" s="8">
         <v>41760</v>
       </c>
@@ -42880,8 +43106,9 @@
       <c r="G94" s="4">
         <v>32943113</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1">
       <c r="A95" s="8">
         <v>41791</v>
       </c>
@@ -42903,8 +43130,9 @@
       <c r="G95" s="4">
         <v>30677666</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1">
       <c r="A96" s="8">
         <v>41821</v>
       </c>
@@ -42926,8 +43154,9 @@
       <c r="G96" s="4">
         <v>28147003</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="1:18" ht="15.75" customHeight="1">
       <c r="A97" s="8">
         <v>41852</v>
       </c>
@@ -42949,8 +43178,9 @@
       <c r="G97" s="4">
         <v>28249153</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="1:18" ht="15.75" customHeight="1">
       <c r="A98" s="8">
         <v>41883</v>
       </c>
@@ -42972,8 +43202,9 @@
       <c r="G98" s="4">
         <v>30710759</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="1:18" ht="15.75" customHeight="1">
       <c r="A99" s="8">
         <v>41913</v>
       </c>
@@ -42995,8 +43226,9 @@
       <c r="G99" s="4">
         <v>29533386</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="1:18" ht="15.75" customHeight="1">
       <c r="A100" s="8">
         <v>41944</v>
       </c>
@@ -43018,8 +43250,9 @@
       <c r="G100" s="4">
         <v>25911478</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I100" s="18"/>
+    </row>
+    <row r="101" spans="1:18" ht="15.75" customHeight="1">
       <c r="A101" s="8">
         <v>41974</v>
       </c>
@@ -43041,8 +43274,9 @@
       <c r="G101" s="4">
         <v>20096097</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="1:18" ht="15.75" customHeight="1">
       <c r="A102" s="8">
         <v>42005</v>
       </c>
@@ -43064,8 +43298,9 @@
       <c r="G102" s="4">
         <v>17203368</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I102" s="18"/>
+    </row>
+    <row r="103" spans="1:18" ht="15.75" customHeight="1">
       <c r="A103" s="8">
         <v>42036</v>
       </c>
@@ -43087,8 +43322,9 @@
       <c r="G103" s="4">
         <v>18972980</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A104" s="8">
         <v>42064</v>
       </c>
@@ -43110,8 +43346,9 @@
       <c r="G104" s="4">
         <v>23508802</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A105" s="8">
         <v>42095</v>
       </c>
@@ -43133,8 +43370,31 @@
       <c r="G105" s="4">
         <v>22584446</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I105" s="18"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="M105" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="N105" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="O105" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="P105" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q105" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="R105" s="20" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A106" s="8">
         <v>42125</v>
       </c>
@@ -43156,8 +43416,33 @@
       <c r="G106" s="4">
         <v>22449467</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I106" s="18"/>
+      <c r="K106" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" s="23">
+        <v>39448</v>
+      </c>
+      <c r="M106" s="23">
+        <v>40717</v>
+      </c>
+      <c r="N106" s="23">
+        <v>41989</v>
+      </c>
+      <c r="O106" s="23">
+        <v>41989</v>
+      </c>
+      <c r="P106" s="23">
+        <v>43259</v>
+      </c>
+      <c r="Q106" s="23">
+        <v>44531</v>
+      </c>
+      <c r="R106" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A107" s="8">
         <v>42156</v>
       </c>
@@ -43179,8 +43464,33 @@
       <c r="G107" s="4">
         <v>22320613</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I107" s="18"/>
+      <c r="K107" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="L107" s="28">
+        <v>10462</v>
+      </c>
+      <c r="M107" s="28">
+        <v>29872</v>
+      </c>
+      <c r="N107" s="28">
+        <v>38282</v>
+      </c>
+      <c r="O107" s="28">
+        <v>39620</v>
+      </c>
+      <c r="P107" s="28">
+        <v>47256</v>
+      </c>
+      <c r="Q107" s="28">
+        <v>81099</v>
+      </c>
+      <c r="R107" s="28">
+        <v>13012.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A108" s="8">
         <v>42186</v>
       </c>
@@ -43202,8 +43512,33 @@
       <c r="G108" s="4">
         <v>21771509</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I108" s="18"/>
+      <c r="K108" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="L108" s="27">
+        <v>7974401</v>
+      </c>
+      <c r="M108" s="27">
+        <v>18474466</v>
+      </c>
+      <c r="N108" s="27">
+        <v>24641854</v>
+      </c>
+      <c r="O108" s="27">
+        <v>27068783</v>
+      </c>
+      <c r="P108" s="27">
+        <v>32383404</v>
+      </c>
+      <c r="Q108" s="27">
+        <v>71749290</v>
+      </c>
+      <c r="R108" s="27">
+        <v>12060244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="15.75" customHeight="1">
       <c r="A109" s="8">
         <v>42217</v>
       </c>
@@ -43225,8 +43560,10 @@
       <c r="G109" s="4">
         <v>23672441</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I109" s="18"/>
+      <c r="K109" s="25"/>
+    </row>
+    <row r="110" spans="1:18" ht="15.75" customHeight="1">
       <c r="A110" s="8">
         <v>42248</v>
       </c>
@@ -43248,8 +43585,9 @@
       <c r="G110" s="4">
         <v>22325900</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I110" s="18"/>
+    </row>
+    <row r="111" spans="1:18" ht="15.75" customHeight="1">
       <c r="A111" s="8">
         <v>42278</v>
       </c>
@@ -43271,8 +43609,22 @@
       <c r="G111" s="4">
         <v>27099495</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I111" s="18"/>
+      <c r="K111" cm="1">
+        <f t="array" ref="K111:N118">TRANSPOSE(K105:R108)</f>
+        <v>0</v>
+      </c>
+      <c r="L111" t="str">
+        <v>Data</v>
+      </c>
+      <c r="M111" t="str">
+        <v>Qtd</v>
+      </c>
+      <c r="N111" t="str">
+        <v>Valor</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="15.75" customHeight="1">
       <c r="A112" s="8">
         <v>42309</v>
       </c>
@@ -43294,8 +43646,21 @@
       <c r="G112" s="4">
         <v>24486116</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I112" s="18"/>
+      <c r="K112" t="str">
+        <v>Min</v>
+      </c>
+      <c r="L112" s="22">
+        <v>39448</v>
+      </c>
+      <c r="M112" s="30">
+        <v>10462</v>
+      </c>
+      <c r="N112" s="29">
+        <v>7974401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" customHeight="1">
       <c r="A113" s="8">
         <v>42339</v>
       </c>
@@ -43317,8 +43682,21 @@
       <c r="G113" s="4">
         <v>24325702</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I113" s="18"/>
+      <c r="K113" t="str">
+        <v>1st Qu.</v>
+      </c>
+      <c r="L113" s="22">
+        <v>40717</v>
+      </c>
+      <c r="M113" s="30">
+        <v>29872</v>
+      </c>
+      <c r="N113" s="29">
+        <v>18474466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1">
       <c r="A114" s="8">
         <v>42370</v>
       </c>
@@ -43340,8 +43718,21 @@
       <c r="G114" s="4">
         <v>20501231</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I114" s="18"/>
+      <c r="K114" t="str">
+        <v>Median</v>
+      </c>
+      <c r="L114" s="22">
+        <v>41989</v>
+      </c>
+      <c r="M114" s="30">
+        <v>38282</v>
+      </c>
+      <c r="N114" s="29">
+        <v>24641854</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75" customHeight="1">
       <c r="A115" s="8">
         <v>42401</v>
       </c>
@@ -43363,8 +43754,21 @@
       <c r="G115" s="4">
         <v>19133499</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I115" s="18"/>
+      <c r="K115" t="str">
+        <v xml:space="preserve">Mean  </v>
+      </c>
+      <c r="L115" s="22">
+        <v>41989</v>
+      </c>
+      <c r="M115" s="30">
+        <v>39620</v>
+      </c>
+      <c r="N115" s="29">
+        <v>27068783</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" customHeight="1">
       <c r="A116" s="8">
         <v>42430</v>
       </c>
@@ -43386,8 +43790,21 @@
       <c r="G116" s="4">
         <v>20158468</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I116" s="18"/>
+      <c r="K116" t="str">
+        <v>3rd Qu</v>
+      </c>
+      <c r="L116" s="22">
+        <v>43259</v>
+      </c>
+      <c r="M116" s="30">
+        <v>47256</v>
+      </c>
+      <c r="N116" s="29">
+        <v>32383404</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" customHeight="1">
       <c r="A117" s="8">
         <v>42461</v>
       </c>
@@ -43409,8 +43826,21 @@
       <c r="G117" s="4">
         <v>24585125</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I117" s="18"/>
+      <c r="K117" t="str">
+        <v>Max</v>
+      </c>
+      <c r="L117" s="22">
+        <v>44531</v>
+      </c>
+      <c r="M117" s="30">
+        <v>81099</v>
+      </c>
+      <c r="N117" s="29">
+        <v>71749290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" customHeight="1">
       <c r="A118" s="8">
         <v>42491</v>
       </c>
@@ -43432,8 +43862,21 @@
       <c r="G118" s="4">
         <v>27444215</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I118" s="18"/>
+      <c r="K118" s="26" t="str">
+        <v>Desv. Pad.</v>
+      </c>
+      <c r="L118" t="str">
+        <v>NA</v>
+      </c>
+      <c r="M118" s="30">
+        <v>13012.08</v>
+      </c>
+      <c r="N118" s="29">
+        <v>12060244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" customHeight="1">
       <c r="A119" s="8">
         <v>42522</v>
       </c>
@@ -43455,8 +43898,9 @@
       <c r="G119" s="4">
         <v>23819574</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I119" s="18"/>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" customHeight="1">
       <c r="A120" s="8">
         <v>42552</v>
       </c>
@@ -43478,8 +43922,9 @@
       <c r="G120" s="4">
         <v>21597037</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I120" s="18"/>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" customHeight="1">
       <c r="A121" s="8">
         <v>42583</v>
       </c>
@@ -43501,8 +43946,9 @@
       <c r="G121" s="4">
         <v>22028406</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I121" s="18"/>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" customHeight="1">
       <c r="A122" s="8">
         <v>42614</v>
       </c>
@@ -43524,8 +43970,9 @@
       <c r="G122" s="4">
         <v>20758449</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I122" s="18"/>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" customHeight="1">
       <c r="A123" s="8">
         <v>42644</v>
       </c>
@@ -43547,8 +43994,9 @@
       <c r="G123" s="4">
         <v>20946397</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I123" s="18"/>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" customHeight="1">
       <c r="A124" s="8">
         <v>42675</v>
       </c>
@@ -43570,8 +44018,9 @@
       <c r="G124" s="4">
         <v>19647834</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I124" s="18"/>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" customHeight="1">
       <c r="A125" s="8">
         <v>42705</v>
       </c>
@@ -43593,8 +44042,9 @@
       <c r="G125" s="4">
         <v>16654112</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I125" s="18"/>
+    </row>
+    <row r="126" spans="1:14" ht="15.75" customHeight="1">
       <c r="A126" s="8">
         <v>42736</v>
       </c>
@@ -43616,8 +44066,9 @@
       <c r="G126" s="4">
         <v>15193986</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I126" s="18"/>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" customHeight="1">
       <c r="A127" s="8">
         <v>42767</v>
       </c>
@@ -43639,8 +44090,9 @@
       <c r="G127" s="4">
         <v>16590438</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I127" s="18"/>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" customHeight="1">
       <c r="A128" s="8">
         <v>42795</v>
       </c>
@@ -43662,8 +44114,9 @@
       <c r="G128" s="4">
         <v>20103692</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I128" s="18"/>
+    </row>
+    <row r="129" spans="1:9" ht="15.75" customHeight="1">
       <c r="A129" s="8">
         <v>42826</v>
       </c>
@@ -43685,8 +44138,9 @@
       <c r="G129" s="4">
         <v>19251119</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I129" s="18"/>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" customHeight="1">
       <c r="A130" s="8">
         <v>42856</v>
       </c>
@@ -43708,8 +44162,9 @@
       <c r="G130" s="4">
         <v>20805338</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I130" s="18"/>
+    </row>
+    <row r="131" spans="1:9" ht="15.75" customHeight="1">
       <c r="A131" s="8">
         <v>42887</v>
       </c>
@@ -43731,8 +44186,9 @@
       <c r="G131" s="4">
         <v>22870165</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I131" s="18"/>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" customHeight="1">
       <c r="A132" s="8">
         <v>42917</v>
       </c>
@@ -43754,8 +44210,9 @@
       <c r="G132" s="4">
         <v>22693178</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I132" s="18"/>
+    </row>
+    <row r="133" spans="1:9" ht="15.75" customHeight="1">
       <c r="A133" s="8">
         <v>42948</v>
       </c>
@@ -43777,8 +44234,9 @@
       <c r="G133" s="4">
         <v>27159637</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I133" s="18"/>
+    </row>
+    <row r="134" spans="1:9" ht="15.75" customHeight="1">
       <c r="A134" s="8">
         <v>42979</v>
       </c>
@@ -43800,8 +44258,9 @@
       <c r="G134" s="4">
         <v>28069086</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I134" s="18"/>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" customHeight="1">
       <c r="A135" s="8">
         <v>43009</v>
       </c>
@@ -43823,8 +44282,9 @@
       <c r="G135" s="4">
         <v>30347375</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I135" s="18"/>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" customHeight="1">
       <c r="A136" s="8">
         <v>43040</v>
       </c>
@@ -43846,8 +44306,9 @@
       <c r="G136" s="4">
         <v>29879283</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I136" s="18"/>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1">
       <c r="A137" s="8">
         <v>43070</v>
       </c>
@@ -43869,8 +44330,9 @@
       <c r="G137" s="4">
         <v>40002187</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I137" s="18"/>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1">
       <c r="A138" s="8">
         <v>43101</v>
       </c>
@@ -43892,8 +44354,9 @@
       <c r="G138" s="4">
         <v>24357989</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I138" s="18"/>
+    </row>
+    <row r="139" spans="1:9" ht="15.75" customHeight="1">
       <c r="A139" s="8">
         <v>43132</v>
       </c>
@@ -43915,8 +44378,9 @@
       <c r="G139" s="4">
         <v>24371881</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I139" s="18"/>
+    </row>
+    <row r="140" spans="1:9" ht="15.75" customHeight="1">
       <c r="A140" s="8">
         <v>43160</v>
       </c>
@@ -43938,8 +44402,9 @@
       <c r="G140" s="4">
         <v>29417340</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I140" s="18"/>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" customHeight="1">
       <c r="A141" s="8">
         <v>43191</v>
       </c>
@@ -43961,8 +44426,9 @@
       <c r="G141" s="4">
         <v>39870691</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I141" s="18"/>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1">
       <c r="A142" s="8">
         <v>43221</v>
       </c>
@@ -43984,8 +44450,9 @@
       <c r="G142" s="4">
         <v>38198047</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I142" s="18"/>
+    </row>
+    <row r="143" spans="1:9" ht="15.75" customHeight="1">
       <c r="A143" s="8">
         <v>43252</v>
       </c>
@@ -44007,8 +44474,9 @@
       <c r="G143" s="4">
         <v>39452140</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I143" s="18"/>
+    </row>
+    <row r="144" spans="1:9" ht="15.75" customHeight="1">
       <c r="A144" s="8">
         <v>43282</v>
       </c>
@@ -44030,8 +44498,9 @@
       <c r="G144" s="4">
         <v>49094053</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I144" s="18"/>
+    </row>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1">
       <c r="A145" s="8">
         <v>43313</v>
       </c>
@@ -44053,8 +44522,9 @@
       <c r="G145" s="4">
         <v>37318498</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I145" s="18"/>
+    </row>
+    <row r="146" spans="1:9" ht="15.75" customHeight="1">
       <c r="A146" s="8">
         <v>43344</v>
       </c>
@@ -44076,8 +44546,9 @@
       <c r="G146" s="4">
         <v>35143533</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I146" s="18"/>
+    </row>
+    <row r="147" spans="1:9" ht="15.75" customHeight="1">
       <c r="A147" s="8">
         <v>43374</v>
       </c>
@@ -44099,8 +44570,9 @@
       <c r="G147" s="4">
         <v>48113131</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I147" s="18"/>
+    </row>
+    <row r="148" spans="1:9" ht="15.75" customHeight="1">
       <c r="A148" s="8">
         <v>43405</v>
       </c>
@@ -44122,8 +44594,9 @@
       <c r="G148" s="4">
         <v>66668219</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I148" s="18"/>
+    </row>
+    <row r="149" spans="1:9" ht="15.75" customHeight="1">
       <c r="A149" s="8">
         <v>43435</v>
       </c>
@@ -44145,8 +44618,9 @@
       <c r="G149" s="4">
         <v>60643371</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I149" s="18"/>
+    </row>
+    <row r="150" spans="1:9" ht="15.75" customHeight="1">
       <c r="A150" s="8">
         <v>43466</v>
       </c>
@@ -44168,8 +44642,9 @@
       <c r="G150" s="4">
         <v>30475867</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I150" s="18"/>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1">
       <c r="A151" s="8">
         <v>43497</v>
       </c>
@@ -44191,8 +44666,9 @@
       <c r="G151" s="4">
         <v>33783095</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I151" s="18"/>
+    </row>
+    <row r="152" spans="1:9" ht="15.75" customHeight="1">
       <c r="A152" s="8">
         <v>43525</v>
       </c>
@@ -44214,8 +44690,9 @@
       <c r="G152" s="4">
         <v>38652802</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I152" s="18"/>
+    </row>
+    <row r="153" spans="1:9" ht="15.75" customHeight="1">
       <c r="A153" s="8">
         <v>43556</v>
       </c>
@@ -44237,8 +44714,9 @@
       <c r="G153" s="4">
         <v>42925792</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I153" s="18"/>
+    </row>
+    <row r="154" spans="1:9" ht="15.75" customHeight="1">
       <c r="A154" s="8">
         <v>43586</v>
       </c>
@@ -44260,8 +44738,9 @@
       <c r="G154" s="4">
         <v>51436019</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I154" s="18"/>
+    </row>
+    <row r="155" spans="1:9" ht="15.75" customHeight="1">
       <c r="A155" s="8">
         <v>43617</v>
       </c>
@@ -44283,8 +44762,9 @@
       <c r="G155" s="4">
         <v>53745892</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I155" s="18"/>
+    </row>
+    <row r="156" spans="1:9" ht="15.75" customHeight="1">
       <c r="A156" s="8">
         <v>43647</v>
       </c>
@@ -44306,8 +44786,9 @@
       <c r="G156" s="4">
         <v>54270388</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I156" s="18"/>
+    </row>
+    <row r="157" spans="1:9" ht="15.75" customHeight="1">
       <c r="A157" s="8">
         <v>43678</v>
       </c>
@@ -44329,8 +44810,9 @@
       <c r="G157" s="4">
         <v>38257765</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I157" s="18"/>
+    </row>
+    <row r="158" spans="1:9" ht="15.75" customHeight="1">
       <c r="A158" s="8">
         <v>43709</v>
       </c>
@@ -44352,8 +44834,9 @@
       <c r="G158" s="4">
         <v>36525833</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I158" s="18"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1">
       <c r="A159" s="8">
         <v>43739</v>
       </c>
@@ -44375,8 +44858,9 @@
       <c r="G159" s="4">
         <v>41532561</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I159" s="18"/>
+    </row>
+    <row r="160" spans="1:9" ht="15.75" customHeight="1">
       <c r="A160" s="8">
         <v>43770</v>
       </c>
@@ -44398,8 +44882,9 @@
       <c r="G160" s="4">
         <v>42574924</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I160" s="18"/>
+    </row>
+    <row r="161" spans="1:9" ht="15.75" customHeight="1">
       <c r="A161" s="8">
         <v>43800</v>
       </c>
@@ -44421,8 +44906,9 @@
       <c r="G161" s="4">
         <v>37360202</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I161" s="18"/>
+    </row>
+    <row r="162" spans="1:9" ht="15.75" customHeight="1">
       <c r="A162" s="8">
         <v>43831</v>
       </c>
@@ -44444,8 +44930,9 @@
       <c r="G162" s="4">
         <v>32802847</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I162" s="18"/>
+    </row>
+    <row r="163" spans="1:9" ht="15.75" customHeight="1">
       <c r="A163" s="8">
         <v>43862</v>
       </c>
@@ -44467,8 +44954,9 @@
       <c r="G163" s="4">
         <v>32871477</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I163" s="18"/>
+    </row>
+    <row r="164" spans="1:9" ht="15.75" customHeight="1">
       <c r="A164" s="8">
         <v>43891</v>
       </c>
@@ -44490,8 +44978,9 @@
       <c r="G164" s="4">
         <v>25083592</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I164" s="18"/>
+    </row>
+    <row r="165" spans="1:9" ht="15.75" customHeight="1">
       <c r="A165" s="8">
         <v>43922</v>
       </c>
@@ -44513,8 +45002,9 @@
       <c r="G165" s="4">
         <v>7840447</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I165" s="18"/>
+    </row>
+    <row r="166" spans="1:9" ht="15.75" customHeight="1">
       <c r="A166" s="8">
         <v>43952</v>
       </c>
@@ -44536,8 +45026,9 @@
       <c r="G166" s="4">
         <v>8379088</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I166" s="18"/>
+    </row>
+    <row r="167" spans="1:9" ht="15.75" customHeight="1">
       <c r="A167" s="8">
         <v>43983</v>
       </c>
@@ -44559,8 +45050,9 @@
       <c r="G167" s="4">
         <v>13446557</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I167" s="18"/>
+    </row>
+    <row r="168" spans="1:9" ht="15.75" customHeight="1">
       <c r="A168" s="8">
         <v>44013</v>
       </c>
@@ -44582,8 +45074,9 @@
       <c r="G168" s="4">
         <v>16029413</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I168" s="18"/>
+    </row>
+    <row r="169" spans="1:9" ht="15.75" customHeight="1">
       <c r="A169" s="8">
         <v>44044</v>
       </c>
@@ -44605,8 +45098,9 @@
       <c r="G169" s="4">
         <v>19383577</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I169" s="18"/>
+    </row>
+    <row r="170" spans="1:9" ht="15.75" customHeight="1">
       <c r="A170" s="8">
         <v>44075</v>
       </c>
@@ -44628,8 +45122,9 @@
       <c r="G170" s="4">
         <v>25261843</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I170" s="18"/>
+    </row>
+    <row r="171" spans="1:9" ht="15.75" customHeight="1">
       <c r="A171" s="8">
         <v>44105</v>
       </c>
@@ -44651,8 +45146,9 @@
       <c r="G171" s="4">
         <v>35335626</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I171" s="18"/>
+    </row>
+    <row r="172" spans="1:9" ht="15.75" customHeight="1">
       <c r="A172" s="8">
         <v>44136</v>
       </c>
@@ -44674,8 +45170,9 @@
       <c r="G172" s="4">
         <v>37874700</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I172" s="18"/>
+    </row>
+    <row r="173" spans="1:9" ht="15.75" customHeight="1">
       <c r="A173" s="8">
         <v>44166</v>
       </c>
@@ -44697,8 +45194,9 @@
       <c r="G173" s="4">
         <v>28110434</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I173" s="18"/>
+    </row>
+    <row r="174" spans="1:9" ht="15.75" customHeight="1">
       <c r="A174" s="8">
         <v>44197</v>
       </c>
@@ -44720,8 +45218,9 @@
       <c r="G174" s="4">
         <v>28409607</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I174" s="18"/>
+    </row>
+    <row r="175" spans="1:9" ht="15.75" customHeight="1">
       <c r="A175" s="8">
         <v>44228</v>
       </c>
@@ -44743,8 +45242,9 @@
       <c r="G175" s="4">
         <v>31129167</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I175" s="18"/>
+    </row>
+    <row r="176" spans="1:9" ht="15.75" customHeight="1">
       <c r="A176" s="8">
         <v>44256</v>
       </c>
@@ -44766,8 +45266,9 @@
       <c r="G176" s="4">
         <v>27480951</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I176" s="18"/>
+    </row>
+    <row r="177" spans="1:9" ht="15.75" customHeight="1">
       <c r="A177" s="8">
         <v>44287</v>
       </c>
@@ -44789,8 +45290,9 @@
       <c r="G177" s="4">
         <v>25739300</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I177" s="18"/>
+    </row>
+    <row r="178" spans="1:9" ht="15.75" customHeight="1">
       <c r="A178" s="8">
         <v>44317</v>
       </c>
@@ -44812,8 +45314,9 @@
       <c r="G178" s="4">
         <v>32300852</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I178" s="18"/>
+    </row>
+    <row r="179" spans="1:9" ht="15.75" customHeight="1">
       <c r="A179" s="8">
         <v>44348</v>
       </c>
@@ -44835,8 +45338,9 @@
       <c r="G179" s="4">
         <v>31770278</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I179" s="18"/>
+    </row>
+    <row r="180" spans="1:9" ht="15.75" customHeight="1">
       <c r="A180" s="8">
         <v>44378</v>
       </c>
@@ -44858,8 +45362,9 @@
       <c r="G180" s="4">
         <v>35748291</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I180" s="18"/>
+    </row>
+    <row r="181" spans="1:9" ht="15.75" customHeight="1">
       <c r="A181" s="8">
         <v>44409</v>
       </c>
@@ -44881,8 +45386,9 @@
       <c r="G181" s="4">
         <v>40937851</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I181" s="18"/>
+    </row>
+    <row r="182" spans="1:9" ht="15.75" customHeight="1">
       <c r="A182" s="8">
         <v>44440</v>
       </c>
@@ -44904,8 +45410,9 @@
       <c r="G182" s="4">
         <v>47421693</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I182" s="18"/>
+    </row>
+    <row r="183" spans="1:9" ht="15.75" customHeight="1">
       <c r="A183" s="8">
         <v>44470</v>
       </c>
@@ -44927,8 +45434,9 @@
       <c r="G183" s="4">
         <v>51214066</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I183" s="18"/>
+    </row>
+    <row r="184" spans="1:9" ht="15.75" customHeight="1">
       <c r="A184" s="8">
         <v>44501</v>
       </c>
@@ -44950,8 +45458,9 @@
       <c r="G184" s="4">
         <v>56315301</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1">
+      <c r="I184" s="18"/>
+    </row>
+    <row r="185" spans="1:9" ht="15.75" customHeight="1">
       <c r="A185" s="8">
         <v>44531</v>
       </c>
@@ -44970,9 +45479,10 @@
       <c r="F185" s="4">
         <v>5435548</v>
       </c>
-      <c r="G185" s="4">
+      <c r="G185" s="17">
         <v>53136281</v>
       </c>
+      <c r="I185" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -44981,6 +45491,7 @@
     <mergeCell ref="FC3:FR3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44988,8 +45499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1AE549-CA6E-42CE-A4D7-C18E09ABFE79}">
   <dimension ref="A1:B514"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="B514" sqref="B514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44999,20 +45510,20 @@
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1">
       <c r="B1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="13">
         <v>7.6183000000000005E-9</v>
@@ -45020,7 +45531,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13">
         <v>8.1222999999999995E-9</v>
@@ -45028,7 +45539,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="13">
         <v>8.4972999999999996E-9</v>
@@ -45036,7 +45547,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="13">
         <v>9.0103999999999994E-9</v>
@@ -45044,7 +45555,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="13">
         <v>9.4866999999999995E-9</v>
@@ -45052,7 +45563,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="13">
         <v>1.0027699999999999E-8</v>
@@ -45060,7 +45571,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="13">
         <v>1.05597E-8</v>
@@ -45068,7 +45579,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="13">
         <v>1.11453E-8</v>
@@ -45076,7 +45587,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="13">
         <v>1.16965E-8</v>
@@ -45084,7 +45595,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="13">
         <v>1.2191299999999999E-8</v>
@@ -45092,7 +45603,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="13">
         <v>1.3347100000000001E-8</v>
@@ -45100,7 +45611,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="13">
         <v>1.4237800000000001E-8</v>
@@ -45108,7 +45619,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="13">
         <v>1.51795E-8</v>
@@ -45116,7 +45627,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="13">
         <v>1.6217400000000001E-8</v>
@@ -45124,7 +45635,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="13">
         <v>1.7255499999999999E-8</v>
@@ -45132,7 +45643,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="13">
         <v>1.81134E-8</v>
@@ -45140,7 +45651,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="13">
         <v>1.92839E-8</v>
@@ -45148,7 +45659,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="13">
         <v>2.0356E-8</v>
@@ -45156,7 +45667,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="13">
         <v>2.1479200000000001E-8</v>
@@ -45164,7 +45675,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="13">
         <v>2.28229E-8</v>
@@ -45172,7 +45683,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="13">
         <v>2.4077199999999999E-8</v>
@@ -45180,7 +45691,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="13">
         <v>2.5342899999999999E-8</v>
@@ -45188,7 +45699,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="13">
         <v>2.6629700000000001E-8</v>
@@ -45196,7 +45707,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="13">
         <v>2.8033500000000001E-8</v>
@@ -45204,7 +45715,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="13">
         <v>2.96946E-8</v>
@@ -45212,7 +45723,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="13">
         <v>3.17628E-8</v>
@@ -45220,7 +45731,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="13">
         <v>3.3870800000000002E-8</v>
@@ -45228,7 +45739,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="13">
         <v>3.58057E-8</v>
@@ -45236,7 +45747,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="13">
         <v>3.7913700000000002E-8</v>
@@ -45244,7 +45755,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="13">
         <v>4.0438199999999999E-8</v>
@@ -45252,7 +45763,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="13">
         <v>4.33113E-8</v>
@@ -45260,7 +45771,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="13">
         <v>4.6065000000000003E-8</v>
@@ -45268,7 +45779,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="13">
         <v>4.88164E-8</v>
@@ -45276,7 +45787,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="13">
         <v>5.12964E-8</v>
@@ -45284,7 +45795,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="13">
         <v>5.3575199999999999E-8</v>
@@ -45292,7 +45803,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="13">
         <v>5.6408499999999999E-8</v>
@@ -45300,7 +45811,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" s="13">
         <v>6.0811699999999999E-8</v>
@@ -45308,7 +45819,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="13">
         <v>6.6066500000000005E-8</v>
@@ -45316,7 +45827,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="13">
         <v>7.1258099999999994E-8</v>
@@ -45324,7 +45835,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="13">
         <v>7.6491900000000002E-8</v>
@@ -45332,7 +45843,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="13">
         <v>8.1524499999999997E-8</v>
@@ -45340,7 +45851,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="13">
         <v>8.6809700000000005E-8</v>
@@ -45348,7 +45859,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="13">
         <v>9.5386799999999995E-8</v>
@@ -45356,7 +45867,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="13">
         <v>1.050003E-7</v>
@@ -45364,7 +45875,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="13">
         <v>1.145671E-7</v>
@@ -45372,7 +45883,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="13">
         <v>1.2636819999999999E-7</v>
@@ -45380,7 +45891,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" s="13">
         <v>1.3757270000000001E-7</v>
@@ -45388,7 +45899,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="13">
         <v>1.4773140000000001E-7</v>
@@ -45396,7 +45907,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="13">
         <v>1.605502E-7</v>
@@ -45404,7 +45915,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" s="13">
         <v>1.7607369999999999E-7</v>
@@ -45412,7 +45923,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="13">
         <v>1.9280200000000001E-7</v>
@@ -45420,7 +45931,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="13">
         <v>2.1003570000000001E-7</v>
@@ -45428,7 +45939,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="13">
         <v>2.300794E-7</v>
@@ -45436,7 +45947,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="13">
         <v>2.509021E-7</v>
@@ -45444,7 +45955,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="13">
         <v>2.7619349999999998E-7</v>
@@ -45452,7 +45963,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="13">
         <v>3.0305239999999997E-7</v>
@@ -45460,7 +45971,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" s="13">
         <v>3.3138539999999999E-7</v>
@@ -45468,7 +45979,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" s="13">
         <v>3.7031679999999998E-7</v>
@@ -45476,7 +45987,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" s="13">
         <v>4.0896750000000003E-7</v>
@@ -45484,7 +45995,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="13">
         <v>4.5201679999999998E-7</v>
@@ -45492,7 +46003,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="13">
         <v>5.0615590000000003E-7</v>
@@ -45500,7 +46011,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="13">
         <v>5.6567609999999995E-7</v>
@@ -45508,7 +46019,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" s="13">
         <v>6.2713819999999997E-7</v>
@@ -45516,7 +46027,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" s="13">
         <v>6.9086979999999995E-7</v>
@@ -45524,7 +46035,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="13">
         <v>7.4748890000000001E-7</v>
@@ -45532,7 +46043,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" s="13">
         <v>8.0127699999999996E-7</v>
@@ -45540,7 +46051,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" s="13">
         <v>8.6933690000000001E-7</v>
@@ -45548,7 +46059,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" s="13">
         <v>9.5899160000000007E-7</v>
@@ -45556,7 +46067,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" s="13">
         <v>1.0745458999999999E-6</v>
@@ -45564,7 +46075,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B72" s="13">
         <v>1.1940075E-6</v>
@@ -45572,7 +46083,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="13">
         <v>1.3207687000000001E-6</v>
@@ -45580,7 +46091,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" s="13">
         <v>1.5053189E-6</v>
@@ -45588,7 +46099,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" s="13">
         <v>1.7322163E-6</v>
@@ -45596,7 +46107,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" s="13">
         <v>1.9811765000000001E-6</v>
@@ -45604,7 +46115,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77" s="13">
         <v>2.2331080000000001E-6</v>
@@ -45612,7 +46123,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B78" s="13">
         <v>2.3396314E-6</v>
@@ -45620,7 +46131,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79" s="13">
         <v>2.3578805999999998E-6</v>
@@ -45628,7 +46139,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B80" s="13">
         <v>2.3908693999999998E-6</v>
@@ -45636,7 +46147,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B81" s="13">
         <v>2.4212846000000001E-6</v>
@@ -45644,7 +46155,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B82" s="13">
         <v>2.462696E-6</v>
@@ -45652,7 +46163,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83" s="13">
         <v>2.5501982999999999E-6</v>
@@ -45660,7 +46171,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B84" s="13">
         <v>2.5939493999999999E-6</v>
@@ -45668,7 +46179,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85" s="13">
         <v>2.6433156E-6</v>
@@ -45676,7 +46187,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86" s="13">
         <v>2.7874368999999998E-6</v>
@@ -45684,7 +46195,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B87" s="13">
         <v>3.1121777E-6</v>
@@ -45692,7 +46203,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B88" s="13">
         <v>3.5232509999999999E-6</v>
@@ -45700,7 +46211,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" s="13">
         <v>3.9684828999999996E-6</v>
@@ -45708,7 +46219,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" s="13">
         <v>4.6181985000000002E-6</v>
@@ -45716,7 +46227,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91" s="13">
         <v>5.5002395E-6</v>
@@ -45724,7 +46235,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B92" s="13">
         <v>6.6801157000000004E-6</v>
@@ -45732,7 +46243,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B93" s="13">
         <v>7.9968603E-6</v>
@@ -45740,7 +46251,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B94" s="13">
         <v>8.7333761999999993E-6</v>
@@ -45748,7 +46259,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" s="13">
         <v>9.1587211999999999E-6</v>
@@ -45756,7 +46267,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" s="13">
         <v>9.8713729999999995E-6</v>
@@ -45764,7 +46275,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97" s="13">
         <v>1.09789545E-5</v>
@@ -45772,7 +46283,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="13">
         <v>1.2634477700000001E-5</v>
@@ -45780,7 +46291,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="13">
         <v>1.44221901E-5</v>
@@ -45788,7 +46299,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100" s="13">
         <v>1.7146457000000002E-5</v>
@@ -45796,7 +46307,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="13">
         <v>1.9838436899999999E-5</v>
@@ -45804,7 +46315,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" s="13">
         <v>2.3330102899999999E-5</v>
@@ -45812,7 +46323,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103" s="13">
         <v>2.7830389E-5</v>
@@ -45820,7 +46331,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B104" s="13">
         <v>3.2678334300000003E-5</v>
@@ -45828,7 +46339,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" s="13">
         <v>3.9867553699999997E-5</v>
@@ -45836,7 +46347,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106" s="13">
         <v>4.8602567699999999E-5</v>
@@ -45844,7 +46355,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B107" s="12">
         <v>5.9095814699999997E-5</v>
@@ -45852,7 +46363,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" s="12">
         <v>7.5317649299999994E-5</v>
@@ -45860,7 +46371,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B109" s="12">
         <v>9.4613993600000003E-5</v>
@@ -45868,7 +46379,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" s="12">
         <v>1.210492553E-4</v>
@@ -45876,7 +46387,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B111" s="12">
         <v>1.557904426E-4</v>
@@ -45884,7 +46395,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B112" s="12">
         <v>2.1419629999999999E-4</v>
@@ -45892,7 +46403,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113" s="12">
         <v>2.5013842009999999E-4</v>
@@ -45900,7 +46411,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114" s="12">
         <v>2.6719784279999998E-4</v>
@@ -45908,7 +46419,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B115" s="12">
         <v>2.8945545859999997E-4</v>
@@ -45916,7 +46427,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B116" s="12">
         <v>3.4132578959999998E-4</v>
@@ -45924,7 +46435,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B117" s="12">
         <v>4.3911559890000003E-4</v>
@@ -45932,7 +46443,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B118" s="12">
         <v>5.6092617030000002E-4</v>
@@ -45940,7 +46451,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B119" s="12">
         <v>7.5001448160000002E-4</v>
@@ -45948,7 +46459,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B120" s="12">
         <v>1.031719911E-3</v>
@@ -45956,7 +46467,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121" s="12">
         <v>1.4420348808E-3</v>
@@ -45964,7 +46475,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B122" s="12">
         <v>2.1316159802999999E-3</v>
@@ -45972,7 +46483,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B123" s="12">
         <v>3.2293981927000001E-3</v>
@@ -45980,7 +46491,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B124" s="12">
         <v>5.4108567453999999E-3</v>
@@ -45988,7 +46499,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B125" s="12">
         <v>9.5084984832999996E-3</v>
@@ -45996,7 +46507,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B126" s="12">
         <v>1.7342550351000002E-2</v>
@@ -46004,7 +46515,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B127" s="12">
         <v>2.00341140678E-2</v>
@@ -46012,7 +46523,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B128" s="12">
         <v>2.1554703244099999E-2</v>
@@ -46020,7 +46531,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" s="12">
         <v>2.4087380951899998E-2</v>
@@ -46028,7 +46539,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B130" s="12">
         <v>2.7199470492E-2</v>
@@ -46036,7 +46547,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B131" s="12">
         <v>3.0702762318699998E-2</v>
@@ -46044,7 +46555,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B132" s="12">
         <v>3.51270304097E-2</v>
@@ -46052,7 +46563,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B133" s="12">
         <v>4.0171272055300002E-2</v>
@@ -46060,7 +46571,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B134" s="12">
         <v>4.6924062784199999E-2</v>
@@ -46068,7 +46579,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B135" s="12">
         <v>5.5576860018600002E-2</v>
@@ -46076,7 +46587,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B136" s="12">
         <v>6.7109058472399993E-2</v>
@@ -46084,7 +46595,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B137" s="12">
         <v>8.1014388849100005E-2</v>
@@ -46092,7 +46603,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B138" s="12">
         <v>9.0673647120300002E-2</v>
@@ -46100,7 +46611,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B139" s="12">
         <v>9.5197603525800006E-2</v>
@@ -46108,7 +46619,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B140" s="12">
         <v>0.10227253780620001</v>
@@ -46116,7 +46627,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B141" s="12">
         <v>0.113715813284</v>
@@ -46124,7 +46635,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B142" s="12">
         <v>0.12782677804270001</v>
@@ -46132,7 +46643,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B143" s="12">
         <v>0.14780665921940001</v>
@@ -46140,7 +46651,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B144" s="12">
         <v>0.17090995992909999</v>
@@ -46148,7 +46659,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B145" s="12">
         <v>0.20548432454660001</v>
@@ -46156,7 +46667,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B146" s="12">
         <v>0.2572875157699</v>
@@ -46164,7 +46675,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B147" s="12">
         <v>0.31828867732630001</v>
@@ -46172,7 +46683,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B148" s="12">
         <v>0.40085366056990002</v>
@@ -46180,7 +46691,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B149" s="12">
         <v>0.49834103072840003</v>
@@ -46188,7 +46699,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B150" s="12">
         <v>0.60498746741809994</v>
@@ -46196,7 +46707,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B151" s="12">
         <v>0.72556146522830001</v>
@@ -46204,7 +46715,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B152" s="12">
         <v>0.90593616441860003</v>
@@ -46212,7 +46723,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B153" s="12">
         <v>1.0890285720637001</v>
@@ -46220,7 +46731,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B154" s="12">
         <v>1.3267641484791</v>
@@ -46228,7 +46739,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B155" s="12">
         <v>1.6205100844213001</v>
@@ -46236,7 +46747,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B156" s="12">
         <v>2.0196408623306001</v>
@@ -46244,7 +46755,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B157" s="12">
         <v>2.5293973801068002</v>
@@ -46252,7 +46763,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B158" s="12">
         <v>3.0982598885127999</v>
@@ -46260,7 +46771,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B159" s="12">
         <v>3.8802596550900001</v>
@@ -46268,7 +46779,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B160" s="12">
         <v>5.0579166458253004</v>
@@ -46276,7 +46787,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B161" s="12">
         <v>6.3213843084293</v>
@@ -46284,7 +46795,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B162" s="12">
         <v>8.0445948724788998</v>
@@ -46292,7 +46803,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B163" s="12">
         <v>10.2769672819025</v>
@@ -46300,7 +46811,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B164" s="12">
         <v>13.1226581300609</v>
@@ -46308,7 +46819,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B165" s="12">
         <v>17.068642979808899</v>
@@ -46316,7 +46827,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B166" s="12">
         <v>22.312130761236201</v>
@@ -46324,7 +46835,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B167" s="12">
         <v>29.666210936414501</v>
@@ -46332,7 +46843,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B168" s="12">
         <v>40.254080730946797</v>
@@ -46340,7 +46851,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B169" s="12">
         <v>53.908264834853298</v>
@@ -46348,7 +46859,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B170" s="12">
         <v>73.078046584524003</v>
@@ -46356,7 +46867,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B171" s="12">
         <v>100</v>
@@ -46364,7 +46875,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B172" s="12">
         <v>141.31</v>
@@ -46372,7 +46883,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B173" s="12">
         <v>198.22</v>
@@ -46380,7 +46891,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B174" s="12">
         <v>282.95999999999998</v>
@@ -46388,7 +46899,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B175" s="12">
         <v>403.73</v>
@@ -46396,7 +46907,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B176" s="12">
         <v>581.49</v>
@@ -46404,7 +46915,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B177" s="12">
         <v>857.29</v>
@@ -46412,7 +46923,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B178" s="12">
         <v>915.93</v>
@@ -46420,7 +46931,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B179" s="12">
         <v>932.97</v>
@@ -46428,7 +46939,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B180" s="12">
         <v>947.24</v>
@@ -46436,7 +46947,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B181" s="12">
         <v>972.06</v>
@@ -46444,7 +46955,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B182" s="12">
         <v>999.37</v>
@@ -46452,7 +46963,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B183" s="12">
         <v>1016.46</v>
@@ -46460,7 +46971,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B184" s="12">
         <v>1033.74</v>
@@ -46468,7 +46979,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B185" s="12">
         <v>1044.28</v>
@@ -46476,7 +46987,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B186" s="12">
         <v>1060.47</v>
@@ -46484,7 +46995,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B187" s="12">
         <v>1086.24</v>
@@ -46492,7 +47003,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B188" s="12">
         <v>1115.24</v>
@@ -46500,7 +47011,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B189" s="12">
         <v>1140.44</v>
@@ -46508,7 +47019,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B190" s="12">
         <v>1167.3499999999999</v>
@@ -46516,7 +47027,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B191" s="12">
         <v>1178.9100000000001</v>
@@ -46524,7 +47035,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B192" s="12">
         <v>1190.58</v>
@@ -46532,7 +47043,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B193" s="12">
         <v>1207.3699999999999</v>
@@ -46540,7 +47051,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B194" s="12">
         <v>1225.1199999999999</v>
@@ -46548,7 +47059,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B195" s="12">
         <v>1244.23</v>
@@ -46556,7 +47067,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B196" s="12">
         <v>1260.9000000000001</v>
@@ -46564,7 +47075,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B197" s="12">
         <v>1273.8900000000001</v>
@@ -46572,7 +47083,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B198" s="12">
         <v>1278.3499999999999</v>
@@ -46580,7 +47091,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B199" s="12">
         <v>1294.46</v>
@@ -46588,7 +47099,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B200" s="12">
         <v>1310.25</v>
@@ -46596,7 +47107,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B201" s="12">
         <v>1325.84</v>
@@ -46604,7 +47115,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B202" s="12">
         <v>1340.56</v>
@@ -46612,7 +47123,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B203" s="12">
         <v>1346.46</v>
@@ -46620,7 +47131,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B204" s="12">
         <v>1348.48</v>
@@ -46628,7 +47139,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B205" s="12">
         <v>1352.53</v>
@@ -46636,7 +47147,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B206" s="12">
         <v>1356.86</v>
@@ -46644,7 +47155,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B207" s="12">
         <v>1363.24</v>
@@ -46652,7 +47163,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B208" s="12">
         <v>1379.33</v>
@@ -46660,7 +47171,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B209" s="12">
         <v>1386.23</v>
@@ -46668,7 +47179,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B210" s="12">
         <v>1393.3</v>
@@ -46676,7 +47187,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B211" s="12">
         <v>1405.56</v>
@@ -46684,7 +47195,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B212" s="12">
         <v>1411.32</v>
@@ -46692,7 +47203,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B213" s="12">
         <v>1418.94</v>
@@ -46700,7 +47211,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B214" s="12">
         <v>1422.06</v>
@@ -46708,7 +47219,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B215" s="12">
         <v>1421.78</v>
@@ -46716,7 +47227,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B216" s="12">
         <v>1422.63</v>
@@ -46724,7 +47235,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B217" s="12">
         <v>1425.9</v>
@@ -46732,7 +47243,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B218" s="12">
         <v>1428.32</v>
@@ -46740,7 +47251,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B219" s="12">
         <v>1434.46</v>
@@ -46748,7 +47259,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B220" s="12">
         <v>1444.64</v>
@@ -46756,7 +47267,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B221" s="12">
         <v>1451.29</v>
@@ -46764,7 +47275,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B222" s="12">
         <v>1456.22</v>
@@ -46772,7 +47283,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B223" s="12">
         <v>1459.71</v>
@@ -46780,7 +47291,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B224" s="12">
         <v>1467.01</v>
@@ -46788,7 +47299,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B225" s="12">
         <v>1467.3</v>
@@ -46796,7 +47307,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B226" s="12">
         <v>1465.54</v>
@@ -46804,7 +47315,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B227" s="12">
         <v>1458.07</v>
@@ -46812,7 +47323,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B228" s="12">
         <v>1454.86</v>
@@ -46820,7 +47331,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B229" s="12">
         <v>1455.15</v>
@@ -46828,7 +47339,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B230" s="12">
         <v>1453.4</v>
@@ -46836,7 +47347,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B231" s="12">
         <v>1458.2</v>
@@ -46844,7 +47355,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B232" s="12">
         <v>1468.41</v>
@@ -46852,7 +47363,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B233" s="12">
         <v>1483.83</v>
@@ -46860,7 +47371,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B234" s="12">
         <v>1500.15</v>
@@ -46868,7 +47379,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B235" s="12">
         <v>1508.55</v>
@@ -46876,7 +47387,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B236" s="12">
         <v>1513.08</v>
@@ -46884,7 +47395,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B237" s="12">
         <v>1515.95</v>
@@ -46892,7 +47403,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B238" s="12">
         <v>1532.47</v>
@@ -46900,7 +47411,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B239" s="12">
         <v>1541.05</v>
@@ -46908,7 +47419,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B240" s="12">
         <v>1545.83</v>
@@ -46916,7 +47427,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B241" s="12">
         <v>1564.23</v>
@@ -46924,7 +47435,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B242" s="12">
         <v>1579.09</v>
@@ -46932,7 +47443,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B243" s="12">
         <v>1588.56</v>
@@ -46940,7 +47451,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B244" s="12">
         <v>1598.41</v>
@@ -46948,7 +47459,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B245" s="12">
         <v>1600.49</v>
@@ -46956,7 +47467,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B246" s="12">
         <v>1604.01</v>
@@ -46964,7 +47475,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B247" s="12">
         <v>1610.75</v>
@@ -46972,7 +47483,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B248" s="12">
         <v>1610.91</v>
@@ -46980,7 +47491,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B249" s="12">
         <v>1614.62</v>
@@ -46988,7 +47499,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B250" s="12">
         <v>1640.62</v>
@@ -46996,7 +47507,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B251" s="12">
         <v>1662.11</v>
@@ -47004,7 +47515,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B252" s="12">
         <v>1665.93</v>
@@ -47012,7 +47523,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B253" s="12">
         <v>1668.26</v>
@@ -47020,7 +47531,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B254" s="12">
         <v>1673.6</v>
@@ -47028,7 +47539,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B255" s="12">
         <v>1683.47</v>
@@ -47036,7 +47547,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B256" s="12">
         <v>1693.07</v>
@@ -47044,7 +47555,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B257" s="12">
         <v>1700.86</v>
@@ -47052,7 +47563,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B258" s="12">
         <v>1707.32</v>
@@ -47060,7 +47571,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B259" s="12">
         <v>1717.22</v>
@@ -47068,7 +47579,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B260" s="12">
         <v>1724.26</v>
@@ -47076,7 +47587,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B261" s="12">
         <v>1733.23</v>
@@ -47084,7 +47595,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B262" s="12">
         <v>1756.28</v>
@@ -47092,7 +47603,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B263" s="12">
         <v>1768.57</v>
@@ -47100,7 +47611,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B264" s="12">
         <v>1773.52</v>
@@ -47108,7 +47619,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B265" s="12">
         <v>1788.24</v>
@@ -47116,7 +47627,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B266" s="12">
         <v>1800.94</v>
@@ -47124,7 +47635,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B267" s="12">
         <v>1812.65</v>
@@ -47132,7 +47643,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B268" s="12">
         <v>1822.08</v>
@@ -47140,7 +47651,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B269" s="12">
         <v>1828.64</v>
@@ -47148,7 +47659,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B270" s="12">
         <v>1839.61</v>
@@ -47156,7 +47667,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B271" s="12">
         <v>1854.33</v>
@@ -47164,7 +47675,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B272" s="12">
         <v>1858.22</v>
@@ -47172,7 +47683,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B273" s="12">
         <v>1866.02</v>
@@ -47180,7 +47691,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B274" s="12">
         <v>1888.23</v>
@@ -47188,7 +47699,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B275" s="12">
         <v>1900.5</v>
@@ -47196,7 +47707,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B276" s="12">
         <v>1914.18</v>
@@ -47204,7 +47715,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B277" s="12">
         <v>1939.26</v>
@@ -47212,7 +47723,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B278" s="12">
         <v>1997.83</v>
@@ -47220,7 +47731,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B279" s="12">
         <v>2039.78</v>
@@ -47228,7 +47739,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B280" s="12">
         <v>2085.6799999999998</v>
@@ -47236,7 +47747,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B281" s="12">
         <v>2118.4299999999998</v>
@@ -47244,7 +47755,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B282" s="12">
         <v>2144.4899999999998</v>
@@ -47252,7 +47763,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B283" s="12">
         <v>2165.29</v>
@@ -47260,7 +47771,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B284" s="12">
         <v>2178.5</v>
@@ -47268,7 +47779,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B285" s="12">
         <v>2175.23</v>
@@ -47276,7 +47787,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B286" s="12">
         <v>2179.58</v>
@@ -47284,7 +47795,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B287" s="12">
         <v>2186.9899999999998</v>
@@ -47292,7 +47803,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B288" s="12">
         <v>2204.0500000000002</v>
@@ -47300,7 +47811,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B289" s="12">
         <v>2210.44</v>
@@ -47308,7 +47819,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B290" s="12">
         <v>2217.96</v>
@@ -47316,7 +47827,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B291" s="12">
         <v>2229.4899999999998</v>
@@ -47324,7 +47835,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B292" s="12">
         <v>2246.4299999999998</v>
@@ -47332,7 +47843,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B293" s="12">
         <v>2260.13</v>
@@ -47340,7 +47851,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B294" s="12">
         <v>2270.75</v>
@@ -47348,7 +47859,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B295" s="12">
         <v>2279.15</v>
@@ -47356,7 +47867,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B296" s="12">
         <v>2290.77</v>
@@ -47364,7 +47875,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B297" s="12">
         <v>2307.0300000000002</v>
@@ -47372,7 +47883,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B298" s="12">
         <v>2328.02</v>
@@ -47380,7 +47891,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B299" s="12">
         <v>2344.08</v>
@@ -47388,7 +47899,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B300" s="12">
         <v>2351.8200000000002</v>
@@ -47396,7 +47907,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B301" s="12">
         <v>2362.17</v>
@@ -47404,7 +47915,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B302" s="12">
         <v>2378.4699999999998</v>
@@ -47412,7 +47923,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B303" s="12">
         <v>2398.92</v>
@@ -47420,7 +47931,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B304" s="12">
         <v>2412.83</v>
@@ -47428,7 +47939,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B305" s="12">
         <v>2427.0700000000002</v>
@@ -47436,7 +47947,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B306" s="12">
         <v>2441.87</v>
@@ -47444,7 +47955,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B307" s="12">
         <v>2463.11</v>
@@ -47452,7 +47963,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B308" s="12">
         <v>2475.1799999999998</v>
@@ -47460,7 +47971,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B309" s="12">
         <v>2474.6799999999998</v>
@@ -47468,7 +47979,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B310" s="12">
         <v>2480.87</v>
@@ -47476,7 +47987,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B311" s="12">
         <v>2485.09</v>
@@ -47484,7 +47995,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B312" s="12">
         <v>2493.79</v>
@@ -47492,7 +48003,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B313" s="12">
         <v>2512.4899999999998</v>
@@ -47500,7 +48011,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B314" s="12">
         <v>2526.31</v>
@@ -47508,7 +48019,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B315" s="12">
         <v>2535.4</v>
@@ -47516,7 +48027,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B316" s="12">
         <v>2550.36</v>
@@ -47524,7 +48035,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B317" s="12">
         <v>2560.8200000000002</v>
@@ -47532,7 +48043,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B318" s="12">
         <v>2571.83</v>
@@ -47540,7 +48051,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B319" s="12">
         <v>2577.23</v>
@@ -47548,7 +48059,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B320" s="12">
         <v>2579.81</v>
@@ -47556,7 +48067,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B321" s="12">
         <v>2574.39</v>
@@ -47564,7 +48075,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B322" s="12">
         <v>2579.2800000000002</v>
@@ -47572,7 +48083,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B323" s="12">
         <v>2580.5700000000002</v>
@@ -47580,7 +48091,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B324" s="12">
         <v>2585.9899999999998</v>
@@ -47588,7 +48099,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B325" s="12">
         <v>2594.52</v>
@@ -47596,7 +48107,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B326" s="12">
         <v>2602.56</v>
@@ -47604,7 +48115,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B327" s="12">
         <v>2615.0500000000002</v>
@@ -47612,7 +48123,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B328" s="12">
         <v>2626.56</v>
@@ -47620,7 +48131,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B329" s="12">
         <v>2638.12</v>
@@ -47628,7 +48139,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B330" s="12">
         <v>2647.88</v>
@@ -47636,7 +48147,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B331" s="12">
         <v>2654.5</v>
@@ -47644,7 +48155,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B332" s="12">
         <v>2661.93</v>
@@ -47652,7 +48163,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B333" s="12">
         <v>2669.38</v>
@@ -47660,7 +48171,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B334" s="12">
         <v>2675.79</v>
@@ -47668,7 +48179,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B335" s="12">
         <v>2688.37</v>
@@ -47676,7 +48187,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B336" s="12">
         <v>2693.21</v>
@@ -47684,7 +48195,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B337" s="12">
         <v>2701.29</v>
@@ -47692,7 +48203,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B338" s="12">
         <v>2711.55</v>
@@ -47700,7 +48211,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B339" s="12">
         <v>2731.62</v>
@@ -47708,7 +48219,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B340" s="12">
         <v>2746.37</v>
@@ -47716,7 +48227,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B341" s="12">
         <v>2759.83</v>
@@ -47724,7 +48235,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B342" s="12">
         <v>2773.08</v>
@@ -47732,7 +48243,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B343" s="12">
         <v>2788.33</v>
@@ -47740,7 +48251,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B344" s="12">
         <v>2810.36</v>
@@ -47748,7 +48259,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B345" s="12">
         <v>2831.16</v>
@@ -47756,7 +48267,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B346" s="12">
         <v>2846.16</v>
@@ -47764,7 +48275,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B347" s="12">
         <v>2854.13</v>
@@ -47772,7 +48283,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B348" s="12">
         <v>2861.55</v>
@@ -47780,7 +48291,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B349" s="12">
         <v>2874.43</v>
@@ -47788,7 +48299,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B350" s="12">
         <v>2884.78</v>
@@ -47796,7 +48307,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B351" s="12">
         <v>2892.86</v>
@@ -47804,7 +48315,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B352" s="12">
         <v>2906.74</v>
@@ -47812,7 +48323,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B353" s="12">
         <v>2922.73</v>
@@ -47820,7 +48331,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B354" s="12">
         <v>2928.57</v>
@@ -47828,7 +48339,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B355" s="12">
         <v>2942.63</v>
@@ -47836,7 +48347,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B356" s="12">
         <v>2956.46</v>
@@ -47844,7 +48355,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B357" s="12">
         <v>2967.1</v>
@@ -47852,7 +48363,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B358" s="12">
         <v>2974.22</v>
@@ -47860,7 +48371,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B359" s="12">
         <v>2978.68</v>
@@ -47868,7 +48379,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B360" s="12">
         <v>2985.83</v>
@@ -47876,7 +48387,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B361" s="12">
         <v>2994.19</v>
@@ -47884,7 +48395,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B362" s="12">
         <v>3006.47</v>
@@ -47892,7 +48403,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B363" s="12">
         <v>3017.59</v>
@@ -47900,7 +48411,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B364" s="12">
         <v>3040.22</v>
@@ -47908,7 +48419,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B365" s="12">
         <v>3063.93</v>
@@ -47916,7 +48427,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B366" s="12">
         <v>3079.86</v>
@@ -47924,7 +48435,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B367" s="12">
         <v>3097.42</v>
@@ -47932,7 +48443,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B368" s="12">
         <v>3110.74</v>
@@ -47940,7 +48451,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B369" s="12">
         <v>3110.74</v>
@@ -47948,7 +48459,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B370" s="12">
         <v>3111.05</v>
@@ -47956,7 +48467,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B371" s="12">
         <v>3112.29</v>
@@ -47964,7 +48475,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B372" s="12">
         <v>3126.29</v>
@@ -47972,7 +48483,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B373" s="12">
         <v>3149.74</v>
@@ -47980,7 +48491,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B374" s="12">
         <v>3175.88</v>
@@ -47988,7 +48499,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B375" s="12">
         <v>3195.89</v>
@@ -47996,7 +48507,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B376" s="12">
         <v>3222.42</v>
@@ -48004,7 +48515,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B377" s="12">
         <v>3248.2</v>
@@ -48012,7 +48523,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B378" s="12">
         <v>3273.86</v>
@@ -48020,7 +48531,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B379" s="12">
         <v>3299.07</v>
@@ -48028,7 +48539,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B380" s="12">
         <v>3314.58</v>
@@ -48036,7 +48547,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B381" s="12">
         <v>3319.55</v>
@@ -48044,7 +48555,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B382" s="12">
         <v>3324.86</v>
@@ -48052,7 +48563,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B383" s="12">
         <v>3337.16</v>
@@ -48060,7 +48571,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B384" s="12">
         <v>3354.85</v>
@@ -48068,7 +48579,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B385" s="12">
         <v>3369.28</v>
@@ -48076,7 +48587,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B386" s="12">
         <v>3386.8</v>
@@ -48084,7 +48595,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B387" s="12">
         <v>3403.73</v>
@@ -48092,7 +48603,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B388" s="12">
         <v>3422.79</v>
@@ -48100,7 +48611,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B389" s="12">
         <v>3438.19</v>
@@ -48108,7 +48619,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B390" s="12">
         <v>3445.41</v>
@@ -48116,7 +48627,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B391" s="12">
         <v>3467.46</v>
@@ -48124,7 +48635,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B392" s="12">
         <v>3479.94</v>
@@ -48132,7 +48643,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B393" s="12">
         <v>3482.72</v>
@@ -48140,7 +48651,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B394" s="12">
         <v>3497.7</v>
@@ -48148,7 +48659,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B395" s="12">
         <v>3512.04</v>
@@ -48156,7 +48667,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B396" s="12">
         <v>3532.06</v>
@@ -48164,7 +48675,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B397" s="12">
         <v>3552.9</v>
@@ -48172,7 +48683,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B398" s="12">
         <v>3574.22</v>
@@ -48180,7 +48691,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B399" s="12">
         <v>3602.46</v>
@@ -48188,7 +48699,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B400" s="12">
         <v>3633.44</v>
@@ -48196,7 +48707,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B401" s="12">
         <v>3655.24</v>
@@ -48204,7 +48715,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B402" s="12">
         <v>3672.42</v>
@@ -48212,7 +48723,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B403" s="12">
         <v>3692.62</v>
@@ -48220,7 +48731,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B404" s="12">
         <v>3706.28</v>
@@ -48228,7 +48739,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B405" s="12">
         <v>3715.92</v>
@@ -48236,7 +48747,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B406" s="12">
         <v>3717.03</v>
@@ -48244,7 +48755,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B407" s="12">
         <v>3725.95</v>
@@ -48252,7 +48763,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B408" s="12">
         <v>3738.99</v>
@@ -48260,7 +48771,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B409" s="12">
         <v>3760.3</v>
@@ -48268,7 +48779,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B410" s="12">
         <v>3780.61</v>
@@ -48276,7 +48787,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B411" s="12">
         <v>3815.39</v>
@@ -48284,7 +48795,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B412" s="12">
         <v>3836.37</v>
@@ -48292,7 +48803,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B413" s="12">
         <v>3862.84</v>
@@ -48300,7 +48811,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B414" s="12">
         <v>3898.38</v>
@@ -48308,7 +48819,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B415" s="12">
         <v>3924.5</v>
@@ -48316,7 +48827,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B416" s="12">
         <v>3942.55</v>
@@ -48324,7 +48835,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B417" s="12">
         <v>3958.32</v>
@@ -48332,7 +48843,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B418" s="12">
         <v>3958.72</v>
@@ -48340,7 +48851,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B419" s="12">
         <v>3968.62</v>
@@ -48348,7 +48859,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B420" s="12">
         <v>3991.24</v>
@@ -48356,7 +48867,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B421" s="12">
         <v>4008</v>
@@ -48364,7 +48875,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B422" s="12">
         <v>4028.44</v>
@@ -48372,7 +48883,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B423" s="12">
         <v>4059.86</v>
@@ -48380,7 +48891,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B424" s="12">
         <v>4110.2</v>
@@ -48388,7 +48899,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B425" s="12">
         <v>4160.34</v>
@@ -48396,7 +48907,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B426" s="12">
         <v>4215.26</v>
@@ -48404,7 +48915,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B427" s="12">
         <v>4245.1899999999996</v>
@@ -48412,7 +48923,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B428" s="12">
         <v>4276.6000000000004</v>
@@ -48420,7 +48931,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B429" s="12">
         <v>4310.3900000000003</v>
@@ -48428,7 +48939,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B430" s="12">
         <v>4337.1099999999997</v>
@@ -48436,7 +48947,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B431" s="12">
         <v>4346.6499999999996</v>
@@ -48444,7 +48955,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B432" s="12">
         <v>4370.12</v>
@@ -48452,7 +48963,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B433" s="12">
         <v>4405.95</v>
@@ -48460,7 +48971,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B434" s="12">
         <v>4450.45</v>
@@ -48468,7 +48979,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B435" s="12">
         <v>4493.17</v>
@@ -48476,7 +48987,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B436" s="12">
         <v>4550.2299999999996</v>
@@ -48484,7 +48995,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B437" s="12">
         <v>4591.18</v>
@@ -48492,7 +49003,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B438" s="12">
         <v>4610.92</v>
@@ -48500,7 +49011,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B439" s="12">
         <v>4639.05</v>
@@ -48508,7 +49019,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B440" s="12">
         <v>4675.2299999999996</v>
@@ -48516,7 +49027,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B441" s="12">
         <v>4691.59</v>
@@ -48524,7 +49035,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B442" s="12">
         <v>4715.99</v>
@@ -48532,7 +49043,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B443" s="12">
         <v>4736.74</v>
@@ -48540,7 +49051,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B444" s="12">
         <v>4740.53</v>
@@ -48548,7 +49059,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B445" s="12">
         <v>4752.8599999999997</v>
@@ -48556,7 +49067,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B446" s="12">
         <v>4761.42</v>
@@ -48564,7 +49075,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B447" s="12">
         <v>4775.7</v>
@@ -48572,7 +49083,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B448" s="12">
         <v>4793.8500000000004</v>
@@ -48580,7 +49091,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B449" s="12">
         <v>4809.67</v>
@@ -48588,7 +49099,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B450" s="12">
         <v>4821.6899999999996</v>
@@ -48596,7 +49107,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B451" s="12">
         <v>4828.4399999999996</v>
@@ -48604,7 +49115,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B452" s="12">
         <v>4843.41</v>
@@ -48612,7 +49123,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B453" s="12">
         <v>4832.2700000000004</v>
@@ -48620,7 +49131,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B454" s="12">
         <v>4843.87</v>
@@ -48628,7 +49139,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B455" s="12">
         <v>4853.07</v>
@@ -48636,7 +49147,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B456" s="12">
         <v>4860.83</v>
@@ -48644,7 +49155,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B457" s="12">
         <v>4881.25</v>
@@ -48652,7 +49163,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B458" s="12">
         <v>4894.92</v>
@@ -48660,7 +49171,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B459" s="12">
         <v>4916.46</v>
@@ -48668,7 +49179,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B460" s="12">
         <v>4930.72</v>
@@ -48676,7 +49187,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B461" s="12">
         <v>4946.5</v>
@@ -48684,7 +49195,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B462" s="12">
         <v>4950.95</v>
@@ -48692,7 +49203,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B463" s="12">
         <v>4961.84</v>
@@ -48700,7 +49211,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B464" s="12">
         <v>4981.6899999999996</v>
@@ -48708,7 +49219,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B465" s="12">
         <v>5044.46</v>
@@ -48716,7 +49227,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B466" s="12">
         <v>5061.1099999999997</v>
@@ -48724,7 +49235,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B467" s="12">
         <v>5056.5600000000004</v>
@@ -48732,7 +49243,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B468" s="12">
         <v>5080.83</v>
@@ -48740,7 +49251,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B469" s="12">
         <v>5103.6899999999996</v>
@@ -48748,7 +49259,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B470" s="12">
         <v>5092.97</v>
@@ -48756,7 +49267,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B471" s="12">
         <v>5100.6099999999997</v>
@@ -48764,7 +49275,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B472" s="12">
         <v>5116.93</v>
@@ -48772,7 +49283,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B473" s="12">
         <v>5138.93</v>
@@ -48780,7 +49291,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B474" s="12">
         <v>5177.47</v>
@@ -48788,7 +49299,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B475" s="12">
         <v>5206.9799999999996</v>
@@ -48796,7 +49307,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B476" s="12">
         <v>5213.75</v>
@@ -48804,7 +49315,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B477" s="12">
         <v>5214.2700000000004</v>
@@ -48812,7 +49323,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B478" s="12">
         <v>5224.18</v>
@@ -48820,7 +49331,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B479" s="12">
         <v>5229.93</v>
@@ -48828,7 +49339,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B480" s="12">
         <v>5227.84</v>
@@ -48836,7 +49347,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B481" s="12">
         <v>5233.07</v>
@@ -48844,7 +49355,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B482" s="12">
         <v>5259.76</v>
@@ -48852,7 +49363,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B483" s="12">
         <v>5320.25</v>
@@ -48860,7 +49371,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B484" s="12">
         <v>5331.42</v>
@@ -48868,7 +49379,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B485" s="12">
         <v>5344.75</v>
@@ -48876,7 +49387,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B486" s="12">
         <v>5348.49</v>
@@ -48884,7 +49395,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B487" s="12">
         <v>5331.91</v>
@@ -48892,7 +49403,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B488" s="12">
         <v>5311.65</v>
@@ -48900,7 +49411,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B489" s="12">
         <v>5325.46</v>
@@ -48908,7 +49419,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B490" s="12">
         <v>5344.63</v>
@@ -48916,7 +49427,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B491" s="12">
         <v>5357.46</v>
@@ -48924,7 +49435,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B492" s="12">
         <v>5391.75</v>
@@ -48932,7 +49443,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B493" s="12">
         <v>5438.12</v>
@@ -48940,7 +49451,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B494" s="12">
         <v>5486.52</v>
@@ -48948,7 +49459,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B495" s="12">
         <v>5560.59</v>
@@ -48956,7 +49467,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B496" s="12">
         <v>5574.49</v>
@@ -48964,7 +49475,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B497" s="12">
         <v>5622.43</v>
@@ -48972,7 +49483,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B498" s="12">
         <v>5674.72</v>
@@ -48980,7 +49491,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B499" s="12">
         <v>5692.31</v>
@@ -48988,7 +49499,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B500" s="12">
         <v>5739.56</v>
@@ -48996,7 +49507,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B501" s="12">
         <v>5769.98</v>
@@ -49004,7 +49515,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B502" s="12">
         <v>5825.37</v>
@@ -49012,7 +49523,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B503" s="12">
         <v>5876.05</v>
@@ -49020,7 +49531,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B504" s="12">
         <v>5944.21</v>
@@ -49028,7 +49539,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B505" s="12">
         <v>6018.51</v>
@@ -49036,7 +49547,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B506" s="12">
         <v>6075.69</v>
@@ -49044,7 +49555,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B507" s="12">
         <v>6120.04</v>
@@ -49052,7 +49563,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B508" s="12">
         <v>6153.09</v>
@@ -49060,7 +49571,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B509" s="12">
         <v>6215.24</v>
@@ -49068,7 +49579,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B510" s="12">
         <v>6315.93</v>
@@ -49076,7 +49587,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B511" s="12">
         <v>6382.88</v>
@@ -49084,7 +49595,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B512" s="12">
         <v>6412.88</v>
@@ -49092,7 +49603,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B513" s="12">
         <v>6455.85</v>
@@ -49100,7 +49611,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B514" s="12">
         <v>6411.95</v>
